--- a/dev/fhir-ig/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2922,7 +2922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>144</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>208</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>231</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>247</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>257</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>272</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>298</v>
       </c>
@@ -8586,12 +8586,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP56">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
